--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_inductance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_inductance.xlsx
@@ -1130,13 +1130,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-8.693397756226154E-11</v>
+        <v>-8.692255467272226E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172765</v>
       </c>
       <c r="Q3">
-        <v>8.709502779460742E-08</v>
+        <v>8.709501933896874E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777254</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860258</v>
       </c>
       <c r="Q4">
-        <v>5.191990271699881E-07</v>
+        <v>5.19199027003847E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1325,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610251</v>
       </c>
       <c r="Q5">
-        <v>4.282296728285585E-07</v>
+        <v>4.282296643717669E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652246</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997998525</v>
+        <v>0.9526279979985249</v>
       </c>
       <c r="Q6">
-        <v>5.646835317112115E-07</v>
+        <v>5.646835232539659E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797749</v>
+        <v>0.9526280017797745</v>
       </c>
       <c r="Q7">
-        <v>6.783950760030588E-07</v>
+        <v>6.783950714006586E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.9526279270277238</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360249</v>
+        <v>0.9526280025360245</v>
       </c>
       <c r="Q8">
-        <v>7.011373824092594E-07</v>
+        <v>7.011373816620318E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152235</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485248</v>
+        <v>0.9526280040485245</v>
       </c>
       <c r="Q9">
-        <v>7.466220029339034E-07</v>
+        <v>7.466219983312944E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610248</v>
+        <v>0.9526280055610246</v>
       </c>
       <c r="Q10">
-        <v>7.921066130646913E-07</v>
+        <v>7.921066084619548E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078845</v>
+        <v>179.9999992078844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464733</v>
+        <v>0.9526279232464732</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172748</v>
+        <v>0.9526280063172746</v>
       </c>
       <c r="Q11">
-        <v>8.148489214219783E-07</v>
+        <v>8.148489091087608E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851422</v>
+        <v>179.9999991851421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777269</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860266</v>
       </c>
       <c r="Q12">
-        <v>1.553219760566072E-07</v>
+        <v>1.553219327369511E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777271</v>
+        <v>0.9526279451777269</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860268</v>
       </c>
       <c r="Q13">
-        <v>1.55321947923508E-07</v>
+        <v>1.55321935612479E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089768</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0.9526279866547764</v>
       </c>
       <c r="Q14">
-        <v>2.235489126848419E-07</v>
+        <v>2.235489157385902E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964764</v>
+        <v>0.9526279413964763</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627988167276</v>
+        <v>0.9526279881672758</v>
       </c>
       <c r="Q15">
-        <v>2.690335060546892E-07</v>
+        <v>2.690334975984332E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339769</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297766</v>
       </c>
       <c r="Q16">
-        <v>1.325796687464597E-07</v>
+        <v>1.325796215716312E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674116</v>
+        <v>179.9999998674115</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,16 +2027,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.952627945933977</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297766</v>
       </c>
       <c r="Q17">
-        <v>1.325796367581429E-07</v>
+        <v>1.325796283023771E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277265</v>
+        <v>0.9526279391277261</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360263</v>
+        <v>0.9526279904360262</v>
       </c>
       <c r="Q18">
-        <v>3.372604975891365E-07</v>
+        <v>3.372604944083196E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.9526279361027257</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0.9526279934610261</v>
       </c>
       <c r="Q19">
-        <v>4.282297663277533E-07</v>
+        <v>4.282297657407444E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339754</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297761</v>
+        <v>0.9526279957297757</v>
       </c>
       <c r="Q20">
-        <v>4.964567210526534E-07</v>
+        <v>4.964567198178931E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777254</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0.9526279964860261</v>
       </c>
       <c r="Q21">
-        <v>5.191990348804238E-07</v>
+        <v>5.191990259351822E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.102503199997684</v>
@@ -2639,7 +2639,7 @@
         <v>1.08450739798448</v>
       </c>
       <c r="Q6">
-        <v>29.14059842362746</v>
+        <v>29.14059842362745</v>
       </c>
       <c r="R6">
         <v>-91.10214736483699</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620757</v>
+        <v>1.073936237620756</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -2996,7 +2996,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R12">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S12">
         <v>150.3279626171115</v>
@@ -3055,7 +3055,7 @@
         <v>29.14059841639571</v>
       </c>
       <c r="R13">
-        <v>-91.10214741295322</v>
+        <v>-91.1021474129532</v>
       </c>
       <c r="S13">
         <v>150.3279626171115</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.07393623789229</v>
+        <v>1.073936237892289</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3634,13 +3634,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -3835,7 +3835,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R5">
-        <v>-91.10214737876404</v>
+        <v>-91.10214737876403</v>
       </c>
       <c r="S5">
         <v>150.3279626289879</v>
@@ -3891,7 +3891,7 @@
         <v>1.084507397995353</v>
       </c>
       <c r="Q6">
-        <v>29.1405984235346</v>
+        <v>29.14059842353459</v>
       </c>
       <c r="R6">
         <v>-91.10214736272529</v>
@@ -3950,7 +3950,7 @@
         <v>1.084507398091835</v>
       </c>
       <c r="Q7">
-        <v>29.14059842554342</v>
+        <v>29.14059842554341</v>
       </c>
       <c r="R7">
         <v>-91.10214734935968</v>
@@ -4000,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809507</v>
+        <v>1.102503198809508</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
       </c>
       <c r="P8">
-        <v>1.084507398111131</v>
+        <v>1.084507398111132</v>
       </c>
       <c r="Q8">
-        <v>29.14059842594518</v>
+        <v>29.14059842594517</v>
       </c>
       <c r="R8">
         <v>-91.10214734668656</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.102503198711541</v>
+        <v>1.10250319871154</v>
       </c>
       <c r="O10">
         <v>1.073936237604858</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4369,7 +4369,7 @@
         <v>-91.10214740282214</v>
       </c>
       <c r="S14">
-        <v>150.327962620929</v>
+        <v>150.3279626209291</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232931</v>
+        <v>29.14059842232932</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4770,7 +4770,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O21">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P21">
         <v>1.084507397956761</v>
@@ -4865,22 +4865,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -4892,7 +4892,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -4907,13 +4907,13 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720002851666875E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4957,22 +4957,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659293089329307E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999133984</v>
+        <v>179.9999999133985</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5016,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015293</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162327339763485E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179621</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415717838237031E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5140,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563327063853E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890311</v>
+        <v>0.8660253702890308</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889614130762E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.866025369601531</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679597</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554861858743E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344367</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265312</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429596</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885391594617E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5370,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515314</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179594</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215915318178E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640316</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054591</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881167546764E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5488,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015279</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175886979077894E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5547,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175886968329011E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,22 +5606,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.866025384039028</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844367788098E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5665,22 +5665,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640286</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.35914978530356E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640764</v>
+        <v>179.9999995640765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5724,16 +5724,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234476897119E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234423740843E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,22 +5842,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669106939897682E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330808</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515289</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415717150120988E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890293</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725674823297073E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015293</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679616</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162327295030659E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6117,22 +6117,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="D2">
-        <v>40.000001402118</v>
+        <v>40.00000140211802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="G2">
-        <v>230.9401157709824</v>
+        <v>230.9401157709825</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -6144,7 +6144,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -6159,13 +6159,13 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720002851666875E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6209,22 +6209,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640279</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659293089329307E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999133984</v>
+        <v>179.9999999133985</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6268,22 +6268,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015293</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162327339763485E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179621</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415717838237031E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563327063853E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890311</v>
+        <v>0.8660253702890308</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0.8660254372804599</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889614130762E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015311</v>
+        <v>0.866025369601531</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679597</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554861858743E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344367</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265312</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429596</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885391594617E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6622,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515318</v>
+        <v>0.8660253668515314</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179594</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.440215915318178E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640316</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054591</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881167546764E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -6740,22 +6740,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015279</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175886979077894E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6799,16 +6799,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015282</v>
+        <v>0.866025386101528</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679645</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175886968329011E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,22 +6858,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.866025384039028</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844367788098E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6917,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640287</v>
+        <v>0.8660253826640286</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.35914978530356E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640764</v>
+        <v>179.9999995640765</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6976,16 +6976,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890281</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804645</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234476897119E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890279</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234423740843E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,22 +7094,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015283</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669106939897682E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330807</v>
+        <v>179.9999994330808</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515289</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179625</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415717150120988E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890293</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.8660254317804617</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725674823297073E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015293</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.8660254324679616</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.162327295030659E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7384,7 +7384,7 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -7396,7 +7396,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -7526,16 +7526,16 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
       </c>
       <c r="R4">
-        <v>-91.24839358661669</v>
+        <v>-91.2483935866167</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.002551065038351</v>
+        <v>1.00255106503835</v>
       </c>
       <c r="O6">
         <v>0.9731342572792639</v>
@@ -7647,7 +7647,7 @@
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.0264825383982</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -7706,10 +7706,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7762,7 +7762,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7939,7 +7939,7 @@
         <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -8243,7 +8243,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8299,10 +8299,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8467,10 +8467,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -8529,16 +8529,16 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
       </c>
       <c r="R21">
-        <v>-91.24839358661669</v>
+        <v>-91.2483935866167</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -8636,7 +8636,7 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -8648,7 +8648,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -8778,16 +8778,16 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
       </c>
       <c r="R4">
-        <v>-91.24839358661669</v>
+        <v>-91.2483935866167</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.002551065038351</v>
+        <v>1.00255106503835</v>
       </c>
       <c r="O6">
         <v>0.9731342572792639</v>
@@ -8899,7 +8899,7 @@
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.02648253839819</v>
+        <v>29.0264825383982</v>
       </c>
       <c r="R6">
         <v>-91.24839357891874</v>
@@ -8958,10 +8958,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9014,7 +9014,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179663</v>
+        <v>0.9840663106179662</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9191,7 +9191,7 @@
         <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679296</v>
+        <v>0.9840663107679295</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
@@ -9495,7 +9495,7 @@
         <v>-91.24839365204943</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9551,10 +9551,10 @@
         <v>29.02648251807003</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9719,10 +9719,10 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
-        <v>0.9840663103480326</v>
+        <v>0.9840663103480325</v>
       </c>
       <c r="Q20">
         <v>29.02648253518848</v>
@@ -9781,16 +9781,16 @@
         <v>0.9731342572688788</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
       </c>
       <c r="R21">
-        <v>-91.24839358661669</v>
+        <v>-91.2483935866167</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664723</v>
+        <v>0.6350853099664721</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.00000000061768</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112943</v>
+        <v>0.6350853273112936</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114501</v>
+        <v>0.63508529411145</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762056</v>
+        <v>60.00000073762061</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S3">
-        <v>120.000000991656</v>
+        <v>120.0000009916559</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279438</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906036</v>
+        <v>0.635085283890602</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789045</v>
+        <v>60.00000083789058</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297015</v>
+        <v>0.6350853419297008</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
@@ -10104,13 +10104,13 @@
         <v>0.63508528604236</v>
       </c>
       <c r="Q5">
-        <v>60.0000008167812</v>
+        <v>60.00000081678125</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S5">
-        <v>120.0000020942208</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770644</v>
+        <v>0.6350853477770638</v>
       </c>
       <c r="O6">
         <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147241</v>
+        <v>0.635085282814724</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844548</v>
+        <v>60.00000084844552</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
       </c>
       <c r="S6">
-        <v>120.0000025352467</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.635085352649867</v>
+        <v>0.6350853526498664</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250272</v>
+        <v>0.6350852801250271</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483237</v>
+        <v>60.00000087483241</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S7">
-        <v>120.0000029027683</v>
+        <v>120.0000029027682</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244274</v>
+        <v>0.6350853536244269</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870878</v>
+        <v>0.6350852795870876</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010975</v>
+        <v>60.00000088010979</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S8">
-        <v>120.0000029762726</v>
+        <v>120.0000029762725</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735483</v>
+        <v>0.6350853555735476</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112092</v>
+        <v>0.6350852785112091</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066452</v>
+        <v>60.00000089066456</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S9">
-        <v>120.0000031232812</v>
+        <v>120.0000031232811</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226691</v>
+        <v>0.6350853575226686</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353304</v>
+        <v>0.6350852774353303</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121931</v>
+        <v>60.00000090121934</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S10">
-        <v>120.0000032702899</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972296</v>
+        <v>0.635085358497229</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973908</v>
+        <v>0.6350852768973906</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649672</v>
+        <v>60.00000090649675</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S11">
-        <v>120.0000033437942</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349755</v>
+        <v>0.6350853302349749</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
@@ -10538,13 +10538,13 @@
         <v>0.6350852924976312</v>
       </c>
       <c r="Q12">
-        <v>60.0000007534528</v>
+        <v>60.00000075345281</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S12">
-        <v>120.0000012121689</v>
+        <v>120.0000012121688</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349748</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976315</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345277</v>
+        <v>60.00000075345281</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S13">
-        <v>120.0000012121689</v>
+        <v>120.0000012121688</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586576</v>
+        <v>0.6350853331586568</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838145</v>
+        <v>0.635085290883814</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928473</v>
+        <v>60.00000076928479</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326818</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335107778</v>
+        <v>0.6350853351077775</v>
       </c>
       <c r="O15">
         <v>1.100000023884844</v>
@@ -10724,13 +10724,13 @@
         <v>0.6350852898079354</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983957</v>
+        <v>60.00000077983961</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S15">
-        <v>120.0000015796905</v>
+        <v>120.0000015796904</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604149</v>
+        <v>0.6350853292604144</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
@@ -10786,13 +10786,13 @@
         <v>0.635085293035571</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817538</v>
+        <v>60.0000007481754</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S16">
-        <v>120.0000011386646</v>
+        <v>120.0000011386645</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604151</v>
+        <v>0.6350853292604145</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355713</v>
+        <v>0.635085293035571</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.0000007481754</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S17">
-        <v>120.0000011386646</v>
+        <v>120.0000011386645</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314603</v>
+        <v>0.6350853380314595</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941182</v>
+        <v>0.6350852881941175</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567153</v>
+        <v>60.00000079567161</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002034</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297027</v>
+        <v>0.6350853419297015</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.635085286042361</v>
+        <v>0.6350852860423599</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678098</v>
+        <v>60.00000081678109</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533842</v>
+        <v>0.6350853448533833</v>
       </c>
       <c r="O20">
         <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285431</v>
+        <v>0.6350852844285416</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261308</v>
+        <v>60.00000083261319</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147337</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279437</v>
       </c>
       <c r="O21">
         <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906023</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789045</v>
+        <v>60.00000083789057</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.000002388238</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11230,10 +11230,10 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585756</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372386</v>
+        <v>0.6350853281372382</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615861</v>
+        <v>0.6350852933615857</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.00000077271612</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538884</v>
       </c>
       <c r="O4">
         <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298594</v>
+        <v>60.00000087298626</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,19 +11410,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556459</v>
+        <v>0.6350853427556453</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924957</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187671</v>
+        <v>60.00000085187678</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
         <v>120.0000021412045</v>
@@ -11472,19 +11472,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030089</v>
+        <v>0.6350853486030084</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648599</v>
+        <v>0.6350852820648595</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354098</v>
+        <v>60.00000088354106</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S6">
         <v>120.0000025822304</v>
@@ -11534,19 +11534,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758114</v>
+        <v>0.635085353475811</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751631</v>
+        <v>0.6350852793751628</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992793</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S7">
         <v>120.000002949752</v>
@@ -11596,19 +11596,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635085354450372</v>
+        <v>0.6350853544503713</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372235</v>
+        <v>0.6350852788372233</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520525</v>
+        <v>60.00000091520533</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11658,19 +11658,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994929</v>
+        <v>0.6350853563994924</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613452</v>
+        <v>0.6350852777613448</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576001</v>
+        <v>60.00000092576008</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S9">
         <v>120.000003170265</v>
@@ -11720,19 +11720,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853583486138</v>
+        <v>0.6350853583486131</v>
       </c>
       <c r="O10">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854664</v>
+        <v>0.6350852766854659</v>
       </c>
       <c r="Q10">
-        <v>60.0000009363148</v>
+        <v>60.00000093631487</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S10">
         <v>120.0000033172736</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231741</v>
+        <v>0.6350853593231736</v>
       </c>
       <c r="O11">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475269</v>
+        <v>0.6350852761475264</v>
       </c>
       <c r="Q11">
-        <v>60.0000009415922</v>
+        <v>60.00000094159228</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609194</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477673</v>
+        <v>0.6350852917477671</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609195</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477675</v>
+        <v>0.6350852917477671</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854826</v>
+        <v>60.00000078854833</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,22 +11968,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846022</v>
+        <v>0.6350853339846014</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339504</v>
+        <v>0.6350852901339497</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438021</v>
+        <v>60.00000080438036</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
-        <v>120.0000014796657</v>
+        <v>120.0000014796656</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337226</v>
+        <v>0.6350853359337221</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580714</v>
+        <v>0.635085289058071</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493513</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S15">
-        <v>120.0000016266743</v>
+        <v>120.0000016266742</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,22 +12092,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863589</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
       </c>
       <c r="P16">
-        <v>0.635085292285707</v>
+        <v>0.6350852922857069</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327091</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863596</v>
+        <v>0.635085330086359</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857071</v>
+        <v>0.6350852922857066</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327086</v>
+        <v>60.00000078327092</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>120.0000011856484</v>
+        <v>120.0000011856483</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574049</v>
+        <v>0.635085338857404</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442541</v>
+        <v>0.6350852874442527</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076702</v>
+        <v>60.00000083076723</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471872</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556472</v>
+        <v>0.6350853427556461</v>
       </c>
       <c r="O19">
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924969</v>
+        <v>0.6350852852924952</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187648</v>
+        <v>60.00000085187674</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412045</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793288</v>
+        <v>0.6350853456793278</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786789</v>
+        <v>0.6350852836786769</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770856</v>
+        <v>60.00000086770887</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538883</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407374</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298594</v>
+        <v>60.00000087298626</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352218</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -12737,7 +12737,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
         <v>149.524656679918</v>
@@ -13171,7 +13171,7 @@
         <v>29.92212961775842</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S12">
         <v>149.5246566729963</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246566724194</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212961700742</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246566724194</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.090352557053719</v>
+        <v>1.090352557053718</v>
       </c>
       <c r="O10">
         <v>1.100000023842583</v>
@@ -15038,13 +15038,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877792915</v>
+        <v>1.096496877792916</v>
       </c>
       <c r="Q13">
         <v>29.92212961849399</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566733128</v>
@@ -15351,7 +15351,7 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -15475,10 +15475,10 @@
         <v>1.096496877640431</v>
       </c>
       <c r="Q20">
-        <v>29.92212962975898</v>
+        <v>29.92212962975897</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.524656681965</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15733,10 +15733,10 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027883</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610996</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
@@ -15792,16 +15792,16 @@
         <v>0.5773503058881817</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007626</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
         <v>120.0000030191489</v>
@@ -15857,13 +15857,13 @@
         <v>0.9999999999962959</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450434</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -15919,16 +15919,16 @@
         <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673668</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786209</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -15978,13 +15978,13 @@
         <v>0.5773503133680399</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.0000000873269</v>
       </c>
       <c r="R7">
         <v>-89.99999999999591</v>
@@ -16040,19 +16040,19 @@
         <v>0.577350314436591</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121986</v>
       </c>
       <c r="R8">
         <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582588</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -16102,13 +16102,13 @@
         <v>0.5773503165736933</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157777</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900578</v>
       </c>
       <c r="R9">
         <v>-89.99999999999592</v>
@@ -16161,19 +16161,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107957</v>
       </c>
       <c r="O10">
         <v>0.9999999999962956</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -16229,10 +16229,10 @@
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068465</v>
       </c>
       <c r="R11">
         <v>-89.99999999999592</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778883</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16350,19 +16350,19 @@
         <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R13">
         <v>-89.99999999999586</v>
       </c>
       <c r="S13">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -16409,19 +16409,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.577350291997017</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640959</v>
       </c>
       <c r="Q14">
         <v>60.00000060946774</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -16474,13 +16474,13 @@
         <v>0.5773502941341194</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725363</v>
       </c>
       <c r="R15">
         <v>-89.99999999999586</v>
@@ -16533,16 +16533,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389587</v>
       </c>
       <c r="R16">
         <v>-89.99999999999586</v>
@@ -16601,7 +16601,7 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389586</v>
@@ -16660,16 +16660,16 @@
         <v>0.5773502973397727</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318522</v>
       </c>
       <c r="Q18">
         <v>60.00000047893256</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S18">
         <v>120.0000021800391</v>
@@ -16722,16 +16722,16 @@
         <v>0.5773503016139772</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060573</v>
       </c>
       <c r="Q19">
         <v>60.00000037450442</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -16784,16 +16784,16 @@
         <v>0.5773503048196306</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P20">
         <v>0.5773502487867114</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.00000029618329</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
         <v>120.0000029142602</v>
@@ -16846,16 +16846,16 @@
         <v>0.5773503058881817</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P21">
         <v>0.5773502484802627</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007626</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
         <v>120.0000030191489</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17048,10 +17048,10 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027883</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610996</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
@@ -17107,16 +17107,16 @@
         <v>0.5773503058881817</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.5773502484802628</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007626</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
         <v>120.0000030191489</v>
@@ -17172,13 +17172,13 @@
         <v>0.9999999999962959</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450432</v>
+        <v>60.00000037450434</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -17234,16 +17234,16 @@
         <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673668</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786209</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
-        <v>120.0000032289265</v>
+        <v>120.0000032289264</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -17293,13 +17293,13 @@
         <v>0.5773503133680399</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.0000000873269</v>
       </c>
       <c r="R7">
         <v>-89.99999999999591</v>
@@ -17355,19 +17355,19 @@
         <v>0.577350314436591</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
-        <v>60.00000006121983</v>
+        <v>60.00000006121986</v>
       </c>
       <c r="R8">
         <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582589</v>
+        <v>120.0000038582588</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -17417,13 +17417,13 @@
         <v>0.5773503165736933</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157777</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900578</v>
       </c>
       <c r="R9">
         <v>-89.99999999999592</v>
@@ -17476,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107957</v>
       </c>
       <c r="O10">
         <v>0.9999999999962956</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028804</v>
       </c>
       <c r="Q10">
         <v>59.99999995679168</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -17544,10 +17544,10 @@
         <v>0.9999999999962956</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.5773502444964319</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068465</v>
       </c>
       <c r="R11">
         <v>-89.99999999999592</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913637</v>
+        <v>0.5773502887913639</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778882</v>
+        <v>60.00000068778883</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17665,19 +17665,19 @@
         <v>0.5773502887913639</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778881</v>
+        <v>60.00000068778882</v>
       </c>
       <c r="R13">
         <v>-89.99999999999586</v>
       </c>
       <c r="S13">
-        <v>120.0000013409294</v>
+        <v>120.0000013409293</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -17724,19 +17724,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.577350291997017</v>
       </c>
       <c r="O14">
         <v>0.9999999999962959</v>
       </c>
       <c r="P14">
-        <v>0.577350252464096</v>
+        <v>0.5773502524640959</v>
       </c>
       <c r="Q14">
         <v>60.00000060946774</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -17789,13 +17789,13 @@
         <v>0.5773502941341194</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725363</v>
       </c>
       <c r="R15">
         <v>-89.99999999999586</v>
@@ -17848,16 +17848,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996296</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389586</v>
+        <v>60.00000071389587</v>
       </c>
       <c r="R16">
         <v>-89.99999999999586</v>
@@ -17916,7 +17916,7 @@
         <v>0.9999999999962961</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
         <v>60.00000071389586</v>
@@ -17975,16 +17975,16 @@
         <v>0.5773502973397727</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318522</v>
       </c>
       <c r="Q18">
         <v>60.00000047893256</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S18">
         <v>120.0000021800391</v>
@@ -18037,16 +18037,16 @@
         <v>0.5773503016139772</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060573</v>
       </c>
       <c r="Q19">
         <v>60.00000037450442</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S19">
         <v>120.000002599594</v>
@@ -18099,16 +18099,16 @@
         <v>0.5773503048196306</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P20">
         <v>0.5773502487867114</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.00000029618329</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S20">
         <v>120.0000029142602</v>
@@ -18161,16 +18161,16 @@
         <v>0.5773503058881817</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P21">
         <v>0.5773502484802627</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007626</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S21">
         <v>120.0000030191489</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18363,7 +18363,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18425,7 +18425,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18549,7 +18549,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -19048,7 +19048,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -19175,7 +19175,7 @@
         <v>29.91230407888578</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S16">
         <v>149.460757303064</v>
@@ -19237,7 +19237,7 @@
         <v>29.91230407888578</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S17">
         <v>149.460757303064</v>
@@ -19479,7 +19479,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19678,7 +19678,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115342</v>
+        <v>0.9963798869115341</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19740,7 +19740,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -19864,7 +19864,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -20363,7 +20363,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -20490,7 +20490,7 @@
         <v>29.91230407888578</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S16">
         <v>149.460757303064</v>
@@ -20552,7 +20552,7 @@
         <v>29.91230407888578</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S17">
         <v>149.460757303064</v>
@@ -20794,7 +20794,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -20892,19 +20892,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620926</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114189</v>
       </c>
       <c r="G2">
-        <v>333.3333522545259</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -20919,10 +20919,10 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>0.6350853098448019</v>
@@ -20934,7 +20934,7 @@
         <v>0.6350853098608015</v>
       </c>
       <c r="Q2">
-        <v>4.228458211276003E-09</v>
+        <v>4.228435068387253E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085294097668</v>
+        <v>0.6350852940976675</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.6350853272056284</v>
       </c>
       <c r="Q3">
-        <v>9.908897703630627E-07</v>
+        <v>9.908897418310849E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768186</v>
+        <v>0.635085283876818</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q4">
-        <v>2.387471879046079E-06</v>
+        <v>2.387471838164315E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285742</v>
+        <v>0.6350852860285738</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240362</v>
+        <v>0.6350853418240354</v>
       </c>
       <c r="Q5">
-        <v>2.093454436649392E-06</v>
+        <v>2.09345441389783E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,16 +21173,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009366</v>
+        <v>0.6350852828009361</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.635085347671399</v>
+        <v>0.6350853476713983</v>
       </c>
       <c r="Q6">
-        <v>2.534480320106092E-06</v>
+        <v>2.53448029735358E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,16 +21235,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112382</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525442014</v>
+        <v>0.6350853525442007</v>
       </c>
       <c r="Q7">
-        <v>2.902001903347671E-06</v>
+        <v>2.902001880594382E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -21297,16 +21297,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732993</v>
+        <v>0.6350852795732989</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187619</v>
+        <v>0.6350853535187614</v>
       </c>
       <c r="Q8">
-        <v>2.975506220685522E-06</v>
+        <v>2.975506197932142E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,16 +21359,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974194</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678829</v>
+        <v>0.6350853554678823</v>
       </c>
       <c r="Q9">
-        <v>3.122514844006423E-06</v>
+        <v>3.122514821252699E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,16 +21421,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215401</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085357417004</v>
+        <v>0.6350853574170033</v>
       </c>
       <c r="Q10">
-        <v>3.269523467164331E-06</v>
+        <v>3.269523450193171E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836004</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915644</v>
+        <v>0.6350853583915637</v>
       </c>
       <c r="Q11">
-        <v>3.343027784731438E-06</v>
+        <v>3.34302776197736E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,16 +21545,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293099</v>
       </c>
       <c r="Q12">
-        <v>1.211402720229386E-06</v>
+        <v>1.211402643996095E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838485</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293099</v>
       </c>
       <c r="Q13">
-        <v>1.211402669640932E-06</v>
+        <v>1.211402646891427E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,16 +21669,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700311</v>
+        <v>0.6350852908700305</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529926</v>
+        <v>0.6350853330529915</v>
       </c>
       <c r="Q14">
-        <v>1.431915668850397E-06</v>
+        <v>1.431915643958956E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941514</v>
+        <v>0.6350852897941509</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021123</v>
       </c>
       <c r="Q15">
-        <v>1.578924259829376E-06</v>
+        <v>1.578924231296107E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547504</v>
+        <v>0.6350853291547494</v>
       </c>
       <c r="Q16">
-        <v>1.137898405226263E-06</v>
+        <v>1.137898340558717E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217883</v>
+        <v>0.635085293021788</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.6350853291547494</v>
       </c>
       <c r="Q17">
-        <v>1.137898360420636E-06</v>
+        <v>1.137898337671222E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,16 +21917,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803341</v>
+        <v>0.6350852881803333</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257955</v>
+        <v>0.6350853379257938</v>
       </c>
       <c r="Q18">
-        <v>1.799437288116788E-06</v>
+        <v>1.799437232283933E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -21979,16 +21979,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285764</v>
+        <v>0.6350852860285756</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240379</v>
+        <v>0.6350853418240359</v>
       </c>
       <c r="Q19">
-        <v>2.093454593194453E-06</v>
+        <v>2.093454536302482E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147582</v>
+        <v>0.6350852844147575</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477195</v>
+        <v>0.6350853447477172</v>
       </c>
       <c r="Q20">
-        <v>2.313967568198361E-06</v>
+        <v>2.313967516011201E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768186</v>
+        <v>0.635085283876818</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.63508534572228</v>
+        <v>0.6350853457222777</v>
       </c>
       <c r="Q21">
-        <v>2.387471873263252E-06</v>
+        <v>2.387471826858827E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22207,7 +22207,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
         <v>57.73503019620923</v>
@@ -22216,7 +22216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545257</v>
@@ -22228,19 +22228,19 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,16 +22249,16 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442587551278E-09</v>
+        <v>4.228436635585718E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999948365</v>
+        <v>-179.9999999948366</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478029</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315722</v>
       </c>
       <c r="Q3">
-        <v>1.037873697159788E-06</v>
+        <v>1.037873668115598E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992227374</v>
+        <v>-179.9999992227375</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269516</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482238</v>
+        <v>0.635085346548222</v>
       </c>
       <c r="Q4">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455812966563E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787092</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.63508534264998</v>
+        <v>0.6350853426499793</v>
       </c>
       <c r="Q5">
-        <v>2.1404383876735E-06</v>
+        <v>2.140438358627941E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510717</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973429</v>
+        <v>0.6350853484973421</v>
       </c>
       <c r="Q6">
-        <v>2.581464277540806E-06</v>
+        <v>2.581464254277535E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999991119127</v>
+        <v>-179.9999991119128</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613746</v>
+        <v>0.6350852793613738</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701454</v>
+        <v>0.6350853533701447</v>
       </c>
       <c r="Q7">
-        <v>2.948985843957055E-06</v>
+        <v>2.948985832258997E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999990855258</v>
+        <v>-179.9999990855259</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234349</v>
+        <v>0.6350852788234344</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447059</v>
+        <v>0.6350853543447053</v>
       </c>
       <c r="Q8">
-        <v>3.02249015561671E-06</v>
+        <v>3.022490155484251E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802484</v>
+        <v>-179.9999990802485</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475559</v>
+        <v>0.635085277747555</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.635085356293827</v>
+        <v>0.635085356293826</v>
       </c>
       <c r="Q9">
-        <v>3.169498779146869E-06</v>
+        <v>3.169498767448564E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999990696937</v>
+        <v>-179.9999990696938</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716765</v>
+        <v>0.6350852766716757</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429478</v>
+        <v>0.6350853582429471</v>
       </c>
       <c r="Q10">
-        <v>3.316507402514037E-06</v>
+        <v>3.31650739081558E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337368</v>
+        <v>0.635085276133736</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175082</v>
+        <v>0.6350853592175075</v>
       </c>
       <c r="Q11">
-        <v>3.390011720185774E-06</v>
+        <v>3.390011702704437E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339844</v>
+        <v>0.6350852917339835</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q12">
-        <v>1.258386640375912E-06</v>
+        <v>1.258386580623287E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992069053</v>
+        <v>-179.9999992069054</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339836</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q13">
-        <v>1.258386621995585E-06</v>
+        <v>1.258386598734016E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201671</v>
+        <v>0.6350852901201657</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789355</v>
       </c>
       <c r="Q14">
-        <v>1.478899607563633E-06</v>
+        <v>1.478899600191787E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999991910732</v>
+        <v>-179.9999991910733</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442871</v>
+        <v>0.6350852890442863</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280568</v>
+        <v>0.6350853358280562</v>
       </c>
       <c r="Q15">
-        <v>1.625908198555419E-06</v>
+        <v>1.625908175293323E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999991805185</v>
+        <v>-179.9999991805186</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,22 +23108,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719245</v>
+        <v>0.6350852922719235</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806933</v>
       </c>
       <c r="Q16">
-        <v>1.184882331050985E-06</v>
+        <v>1.184882277081242E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9999992121827</v>
+        <v>-179.9999992121828</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.6350852922719236</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806933</v>
       </c>
       <c r="Q17">
-        <v>1.184882318453485E-06</v>
+        <v>1.184882289409144E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.63508528743047</v>
+        <v>0.6350852874304678</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517393</v>
+        <v>0.6350853387517381</v>
       </c>
       <c r="Q18">
-        <v>1.846421215787521E-06</v>
+        <v>1.84642120126671E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,22 +23294,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787124</v>
+        <v>0.6350852852787097</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499816</v>
+        <v>0.63508534264998</v>
       </c>
       <c r="Q19">
-        <v>2.140438521283705E-06</v>
+        <v>2.140438505258026E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991435769</v>
+        <v>-179.999999143577</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085283664894</v>
+        <v>0.6350852836648911</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736634</v>
+        <v>0.6350853455736614</v>
       </c>
       <c r="Q20">
-        <v>2.360951508167158E-06</v>
+        <v>2.360951496476022E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277448</v>
+        <v>-179.9999991277449</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269516</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482238</v>
+        <v>0.635085346548222</v>
       </c>
       <c r="Q21">
-        <v>2.434455819119506E-06</v>
+        <v>2.43445580164549E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
         <v>1.096496878100584</v>
@@ -23694,7 +23694,7 @@
         <v>-90.55768082925519</v>
       </c>
       <c r="S4">
-        <v>149.922129629769</v>
+        <v>149.9221296297689</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -24122,7 +24122,7 @@
         <v>1.090352557057971</v>
       </c>
       <c r="Q11">
-        <v>29.52465668972898</v>
+        <v>29.52465668972899</v>
       </c>
       <c r="R11">
         <v>-90.55768081187988</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24246,7 +24246,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q13">
-        <v>29.52465667300136</v>
+        <v>29.52465667300135</v>
       </c>
       <c r="R13">
         <v>-90.55768085064017</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.09649687777377</v>
+        <v>1.096496877773769</v>
       </c>
       <c r="O14">
         <v>1.086862152249445</v>
       </c>
       <c r="P14">
-        <v>1.090352556938987</v>
+        <v>1.090352556938986</v>
       </c>
       <c r="Q14">
         <v>29.5246566747318</v>
@@ -24556,7 +24556,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761588</v>
+        <v>29.52465667761587</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -24618,7 +24618,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q19">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R19">
         <v>-90.55768083460144</v>
@@ -24677,7 +24677,7 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
         <v>29.52465668165357</v>
@@ -24748,7 +24748,7 @@
         <v>-90.55768082925519</v>
       </c>
       <c r="S21">
-        <v>149.922129629769</v>
+        <v>149.9221296297689</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -24858,13 +24858,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25629,7 +25629,7 @@
         <v>-90.55768084557464</v>
       </c>
       <c r="S14">
-        <v>149.9221296207416</v>
+        <v>149.9221296207415</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -25747,7 +25747,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q16">
-        <v>29.52465667274106</v>
+        <v>29.52465667274107</v>
       </c>
       <c r="R16">
         <v>-90.55768085092089</v>
@@ -25809,7 +25809,7 @@
         <v>1.090352556919695</v>
       </c>
       <c r="Q17">
-        <v>29.52465667274106</v>
+        <v>29.52465667274107</v>
       </c>
       <c r="R17">
         <v>-90.55768085092089</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26152,10 +26152,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -26164,10 +26164,10 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -26179,7 +26179,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -26194,13 +26194,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534692288074993E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393525</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594383</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.02915434588083E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168278</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.02204010167798E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426231</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877038</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485313337865E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26439,10 +26439,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.57735030799901</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.231817696827843E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -26495,16 +26495,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.577350313341765</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261350892844E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -26557,16 +26557,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652402</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103161</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150075917336E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -26625,10 +26625,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474183</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.070927552903679E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -26681,16 +26681,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845206</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705030345022E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593758142589E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -26805,16 +26805,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200065</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650916</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820555632707E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26873,10 +26873,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820541520936E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006602</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707445</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486686939129E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877633</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078466</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264191822093E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264552</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931822692572E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,22 +27115,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931821303021E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684167</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973134995</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930298871511E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426222</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877036</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485206988912E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -27310,7 +27310,7 @@
         <v>0.5773503047933564</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151379194626E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168277</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040103882969E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27963,10 +27963,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18802315050826</v>
+        <v>46.18802315050825</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -27975,10 +27975,10 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -27990,7 +27990,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -28005,13 +28005,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534692288074993E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393526</v>
+        <v>0.5773502543393525</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594383</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.02915434588083E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168278</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.02204010167798E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426232</v>
+        <v>0.5773502497426231</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877038</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485313337865E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28250,10 +28250,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.57735030799901</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.231817696827843E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -28306,16 +28306,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716889</v>
+        <v>0.5773502463716887</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.577350313341765</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261350892844E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -28368,16 +28368,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652403</v>
+        <v>0.5773502460652402</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103161</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150075917336E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -28436,10 +28436,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474183</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.070927552903679E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -28492,16 +28492,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845206</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705030345022E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -28554,16 +28554,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593758142589E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -28616,16 +28616,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200067</v>
+        <v>0.5773502534200065</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650916</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820555632707E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28684,10 +28684,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650918</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820541520936E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006602</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707445</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486686939129E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877633</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078466</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264191822093E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264552</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.238931822692572E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,22 +28926,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264551</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965406</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.238931821303021E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684167</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973134995</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930298871511E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426222</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877036</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.602485206988912E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,7 +29112,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -29121,7 +29121,7 @@
         <v>0.5773503047933564</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151379194626E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.5773502485168277</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619075</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040103882969E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -29305,7 +29305,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -29500,7 +29500,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -29630,7 +29630,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29689,7 +29689,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288176</v>
+        <v>0.9900480150288175</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -29754,7 +29754,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -29872,10 +29872,10 @@
         <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -29996,7 +29996,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -30055,16 +30055,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30182,7 +30182,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -30306,7 +30306,7 @@
         <v>0.9963798868219458</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509826</v>
+        <v>0.9864427565509823</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -30374,7 +30374,7 @@
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -30427,19 +30427,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -30608,7 +30608,7 @@
         <v>4.650135750724413</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
@@ -30620,7 +30620,7 @@
         <v>0.1243796444019062</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911622</v>
       </c>
       <c r="M2">
         <v>0.1243796443940132</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O4">
         <v>0.9864427565720366</v>
@@ -30815,7 +30815,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397397</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -30936,7 +30936,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -30945,7 +30945,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -31004,7 +31004,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288176</v>
+        <v>0.9900480150288175</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -31069,7 +31069,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -31187,10 +31187,10 @@
         <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -31246,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9963798868877107</v>
+        <v>0.9963798868877104</v>
       </c>
       <c r="O12">
         <v>0.9864427565299282</v>
@@ -31311,7 +31311,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -31370,16 +31370,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -31497,7 +31497,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -31621,7 +31621,7 @@
         <v>0.9963798868219458</v>
       </c>
       <c r="O18">
-        <v>0.9864427565509826</v>
+        <v>0.9864427565509823</v>
       </c>
       <c r="P18">
         <v>0.9900480148523292</v>
@@ -31689,7 +31689,7 @@
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -31742,19 +31742,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224075</v>
+        <v>-90.63269605224076</v>
       </c>
       <c r="S20">
         <v>149.9123040934202</v>
@@ -31804,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9963798867561807</v>
+        <v>0.9963798867561808</v>
       </c>
       <c r="O21">
         <v>0.9864427565720366</v>
@@ -34412,22 +34412,22 @@
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674506</v>
+        <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.694071102708296E-11</v>
+        <v>-8.693290202781322E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34483,10 +34483,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293724</v>
       </c>
       <c r="Q3">
-        <v>8.313215066396879E-08</v>
+        <v>8.313217690532149E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656305</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981211</v>
       </c>
       <c r="Q4">
-        <v>5.152361523965036E-07</v>
+        <v>5.152361569478716E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -34595,7 +34595,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906295</v>
+        <v>0.9526279368906294</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -34604,13 +34604,13 @@
         <v>0.9526279926731211</v>
       </c>
       <c r="Q5">
-        <v>4.242667901750028E-07</v>
+        <v>4.242668164148811E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34660,16 +34660,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997210621</v>
+        <v>0.9526279972106207</v>
       </c>
       <c r="Q6">
-        <v>5.607206527811399E-07</v>
+        <v>5.60720679020438E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392704</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34719,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918707</v>
       </c>
       <c r="Q7">
-        <v>6.744322008184266E-07</v>
+        <v>6.744322309124671E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156279</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>0.9526280017481206</v>
       </c>
       <c r="Q8">
-        <v>6.971745110578895E-07</v>
+        <v>6.971745372966556E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34840,13 +34840,13 @@
         <v>0.9526280032606206</v>
       </c>
       <c r="Q9">
-        <v>7.426591276834043E-07</v>
+        <v>7.426591577771787E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34896,16 +34896,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731207</v>
+        <v>0.9526280047731205</v>
       </c>
       <c r="Q10">
-        <v>7.881437416254983E-07</v>
+        <v>7.881437717191115E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34958,7 +34958,7 @@
         <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108860461056119E-07</v>
+        <v>8.108860761991686E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656311</v>
+        <v>0.9526279459656309</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981227</v>
+        <v>0.9526279835981226</v>
       </c>
       <c r="Q12">
-        <v>1.513590720551103E-07</v>
+        <v>1.513590859448223E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,7 +35067,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -35076,7 +35076,7 @@
         <v>0.9526279835981226</v>
       </c>
       <c r="Q13">
-        <v>1.513590563005375E-07</v>
+        <v>1.513590863968902E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35126,16 +35126,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968812</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668723</v>
+        <v>0.9526279858668719</v>
       </c>
       <c r="Q14">
-        <v>2.19586030486346E-07</v>
+        <v>2.19586061459292E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -35194,13 +35194,13 @@
         <v>0.9526279873793718</v>
       </c>
       <c r="Q15">
-        <v>2.650706274100409E-07</v>
+        <v>2.650706575058219E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349205</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,7 +35244,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279467218812</v>
+        <v>0.952627946721881</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0.9526279828418727</v>
       </c>
       <c r="Q16">
-        <v>1.286167647669185E-07</v>
+        <v>1.28616778656687E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218812</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418724</v>
+        <v>0.9526279828418726</v>
       </c>
       <c r="Q17">
-        <v>1.286167490123459E-07</v>
+        <v>1.286167752535373E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.952627939915631</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.952627989648122</v>
+        <v>0.9526279896481217</v>
       </c>
       <c r="Q18">
-        <v>3.332976152808618E-07</v>
+        <v>3.332976337726994E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906307</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731218</v>
+        <v>0.9526279926731214</v>
       </c>
       <c r="Q19">
-        <v>4.242668877868737E-07</v>
+        <v>4.242669000497648E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,16 +35480,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.9526279346218806</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418718</v>
+        <v>0.952627994941871</v>
       </c>
       <c r="Q20">
-        <v>4.924938463011247E-07</v>
+        <v>4.924938496159899E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656305</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981211</v>
       </c>
       <c r="Q21">
-        <v>5.152361523965036E-07</v>
+        <v>5.152361557113124E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
